--- a/data-raw/counts_hockey/counts_hockey.xlsx
+++ b/data-raw/counts_hockey/counts_hockey.xlsx
@@ -2395,7 +2395,7 @@
         <v>106</v>
       </c>
       <c r="E107">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -2414,7 +2414,7 @@
         <v>107</v>
       </c>
       <c r="E108">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
@@ -2490,7 +2490,7 @@
         <v>111</v>
       </c>
       <c r="E112">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -2680,7 +2680,7 @@
         <v>121</v>
       </c>
       <c r="E122">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
@@ -5283,7 +5283,7 @@
         <v>258</v>
       </c>
       <c r="E259">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260">
@@ -5378,7 +5378,7 @@
         <v>263</v>
       </c>
       <c r="E264">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265">
